--- a/data/trans_dic/P21_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2382345524361287</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2637849609890562</v>
+        <v>0.2637849609890561</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2184067746311652</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1656888998708703</v>
+        <v>0.1643809693439935</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2049157913430552</v>
+        <v>0.2001970149297713</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.184472613452872</v>
+        <v>0.1821967085243668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1263636576495443</v>
+        <v>0.1268835069056169</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2014327067816785</v>
+        <v>0.2013726936680579</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2565566833279362</v>
+        <v>0.2548205315312634</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2003883815186872</v>
+        <v>0.1973091931765191</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2059402514385731</v>
+        <v>0.1997170431063376</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1935742533727419</v>
+        <v>0.1955162246137249</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2404414039816717</v>
+        <v>0.2422811350564763</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2004850579751043</v>
+        <v>0.1990529602495283</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1766204086595016</v>
+        <v>0.1753758645131898</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2401903703749774</v>
+        <v>0.2343617599399948</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2814897160891641</v>
+        <v>0.2824865049880245</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2689688121222027</v>
+        <v>0.2673157950123175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2481677886376087</v>
+        <v>0.2512418656375489</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2792637439421283</v>
+        <v>0.2798337481403509</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3449172677932342</v>
+        <v>0.3433028458215713</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2872534764825302</v>
+        <v>0.2846503460577053</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3323604864054958</v>
+        <v>0.3242063935695963</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.244218617339469</v>
+        <v>0.2475479699127364</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.299028355085201</v>
+        <v>0.3032919596959952</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2570080967595842</v>
+        <v>0.2615775708378212</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2691188308956514</v>
+        <v>0.2685491580854331</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.127807723369278</v>
+        <v>0.1269222593573801</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2066039040381889</v>
+        <v>0.2034430844020597</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1356678511163657</v>
+        <v>0.1378483034326823</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1622682674399076</v>
+        <v>0.1611580002702593</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2595422749987124</v>
+        <v>0.259430790598489</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3092196686246576</v>
+        <v>0.3114254684652944</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2125658829366845</v>
+        <v>0.2113335818122609</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2193080127524089</v>
+        <v>0.2241386226910472</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1988583138801593</v>
+        <v>0.1968938721504634</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2638353434398085</v>
+        <v>0.2639630658653582</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1842349715646596</v>
+        <v>0.1842379561556103</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2039556208643501</v>
+        <v>0.199659156746918</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1773630099170165</v>
+        <v>0.1803215648485114</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2723833613650002</v>
+        <v>0.2737992902738103</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1979102449649952</v>
+        <v>0.1975497678174555</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2614100790696771</v>
+        <v>0.2618173549874066</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3361355027719306</v>
+        <v>0.334402974441706</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3944066762624206</v>
+        <v>0.3901096987493751</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2838522868698523</v>
+        <v>0.2866107340368589</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3030101082383478</v>
+        <v>0.3032836799849088</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2421150081260751</v>
+        <v>0.2416774794868622</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3173812616468796</v>
+        <v>0.3145645929093562</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2314800204625883</v>
+        <v>0.2328238571034228</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2653287330254535</v>
+        <v>0.262158424552357</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.114078338916884</v>
+        <v>0.1136900395921438</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1549941546148076</v>
+        <v>0.1533376412306155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1321010842365298</v>
+        <v>0.1326876127775845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1741392720598562</v>
+        <v>0.1756269001261927</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1674388382684722</v>
+        <v>0.1705243044080352</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2088652570370758</v>
+        <v>0.2066401854110748</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1857297191370147</v>
+        <v>0.18442705268868</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2136805636756736</v>
+        <v>0.212793666747939</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1497432690963363</v>
+        <v>0.1507504291590573</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1900355926625187</v>
+        <v>0.1916510362985389</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1674238680791719</v>
+        <v>0.167143443205001</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2010697103410166</v>
+        <v>0.2008941972541831</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1729157349822928</v>
+        <v>0.1732648277908076</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2150834726701068</v>
+        <v>0.2173576886591936</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1926619152363833</v>
+        <v>0.1953891549100207</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2437456752736494</v>
+        <v>0.2426981689830077</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2300666090237299</v>
+        <v>0.2324250391481745</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.276749788151143</v>
+        <v>0.2733501689301388</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.252047115879581</v>
+        <v>0.248554429948896</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2708890076787367</v>
+        <v>0.2715468588372898</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1924257566590364</v>
+        <v>0.1914645665896726</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2358136062680516</v>
+        <v>0.2374793824917621</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2124417050864934</v>
+        <v>0.2099702667886282</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2483868797546334</v>
+        <v>0.2465568346980357</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1608287828960827</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2439007255611403</v>
+        <v>0.2439007255611404</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1243027788513432</v>
+        <v>0.1243024739917526</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.131325246027624</v>
+        <v>0.1323403851214615</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1139047488300105</v>
+        <v>0.1161657896548523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2167564213301338</v>
+        <v>0.2142636593884364</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1677765252576101</v>
+        <v>0.168747057901109</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.177087913734847</v>
+        <v>0.1760544185332224</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.153569263682288</v>
+        <v>0.1497260071042407</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.215403424943702</v>
+        <v>0.2144791824664474</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1530824698519997</v>
+        <v>0.1553220304982923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1639824835238875</v>
+        <v>0.1624969267630652</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1421653817415954</v>
+        <v>0.1409770513485077</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2238077828351905</v>
+        <v>0.2225481401627024</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1886754644157816</v>
+        <v>0.1913906981252466</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1920732620500264</v>
+        <v>0.1910013152524821</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1709176752406712</v>
+        <v>0.1758264878755792</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2814733311233032</v>
+        <v>0.2825969917646798</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2403507551185212</v>
+        <v>0.2348358287285666</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.247162874698857</v>
+        <v>0.2506237503228753</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2122854941481798</v>
+        <v>0.2151566800011085</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2665307631854397</v>
+        <v>0.2635687346461298</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2033783178719731</v>
+        <v>0.2033585911307747</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2111001978982981</v>
+        <v>0.2080783225499777</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1845606800207383</v>
+        <v>0.181976848840256</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2627245445408353</v>
+        <v>0.2635901766799089</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1818078914491016</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2413592661089498</v>
+        <v>0.2413592661089499</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1891206927247234</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1272701343664872</v>
+        <v>0.1283590465249047</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1387937148423152</v>
+        <v>0.1404573892324189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1234678731428672</v>
+        <v>0.1200403574939444</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1711247370510585</v>
+        <v>0.1760399264090466</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1757285738910069</v>
+        <v>0.1750657014333091</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1981959217878944</v>
+        <v>0.1908771955732112</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1494566414867471</v>
+        <v>0.1481897244106114</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2171832210553106</v>
+        <v>0.2113300731616513</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1627911936644434</v>
+        <v>0.1638994516953979</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.177782402793045</v>
+        <v>0.1790838276118283</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1439895909600234</v>
+        <v>0.1448937824019548</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2036501514624377</v>
+        <v>0.2016974508137271</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2014328364798614</v>
+        <v>0.201635666259717</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2129483877834079</v>
+        <v>0.2156411623657875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1906670675450851</v>
+        <v>0.1898991317783257</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2396373565643561</v>
+        <v>0.2370426871567343</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2566322242098464</v>
+        <v>0.2571466618948821</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2782629013853818</v>
+        <v>0.2709204223282622</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2221531341147571</v>
+        <v>0.2247159575128</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2703257731135019</v>
+        <v>0.2687194050423147</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2178008684639543</v>
+        <v>0.2184232354823946</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2347345795553899</v>
+        <v>0.2355100536369462</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1944402911822461</v>
+        <v>0.1939251694655981</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2440672161603849</v>
+        <v>0.2434357120580152</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.169070306964534</v>
+        <v>0.1656543469139121</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1366283930204149</v>
+        <v>0.1392644038690419</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.127405635772462</v>
+        <v>0.1313948185353163</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1468835471830651</v>
+        <v>0.1478990966312415</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2303620638315325</v>
+        <v>0.2280818870631092</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2160118524663482</v>
+        <v>0.2138849927901204</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1728681327623085</v>
+        <v>0.173913372233453</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2041765156570833</v>
+        <v>0.2052935246561547</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2144306220962111</v>
+        <v>0.2078737988333019</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1903329403283984</v>
+        <v>0.1939535040942454</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1648938957182428</v>
+        <v>0.1638706248894619</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1851333816036815</v>
+        <v>0.1847461857785143</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2536701315545826</v>
+        <v>0.2595720790192654</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2394567944674367</v>
+        <v>0.229743869714494</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2139991715068142</v>
+        <v>0.2184581042573423</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2066964707655435</v>
+        <v>0.2114949329559645</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3206994570843069</v>
+        <v>0.3255223845143846</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3099649507930056</v>
+        <v>0.3086817414441571</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2557360965853904</v>
+        <v>0.2605647638900431</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2625781537127355</v>
+        <v>0.2630698244078031</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.283013234698889</v>
+        <v>0.2759184390952356</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.256651315171133</v>
+        <v>0.2614107102874818</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2240231290497838</v>
+        <v>0.2244321975582309</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.227853832740888</v>
+        <v>0.2295308977501259</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2190381098460751</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2532700332802535</v>
+        <v>0.2532700332802536</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2119413831521317</v>
+        <v>0.2138489498967632</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2525844577733815</v>
+        <v>0.2458544661396205</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1365104957543141</v>
+        <v>0.1367319482375033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1710057316756607</v>
+        <v>0.1650666969735727</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2601487918684419</v>
+        <v>0.262330043681264</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3164487959037969</v>
+        <v>0.3168972362692841</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2005508741185215</v>
+        <v>0.2010519292328105</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2558838356935241</v>
+        <v>0.2566556808749028</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2586606005967884</v>
+        <v>0.2579241364518496</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3075971924969973</v>
+        <v>0.3042235518297383</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1865624953059171</v>
+        <v>0.1850188677171947</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2307032936085698</v>
+        <v>0.2306991149816008</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3312629668793808</v>
+        <v>0.3313643714437423</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.370838481830097</v>
+        <v>0.3754853845014691</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.223041183515691</v>
+        <v>0.2271555083299666</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2451428135048782</v>
+        <v>0.2410879246157831</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3723625644586427</v>
+        <v>0.3673289942873835</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4167891349566157</v>
+        <v>0.4159826393829325</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2919259744675871</v>
+        <v>0.2925489626365962</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3178912366901211</v>
+        <v>0.31947807910045</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3367983169441948</v>
+        <v>0.3362273465012702</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3867519327356141</v>
+        <v>0.3849976335966752</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2564501071007365</v>
+        <v>0.2546517115881452</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2797477901758473</v>
+        <v>0.2798590017706697</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.157464536887354</v>
+        <v>0.1576402926281555</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1924663082287617</v>
+        <v>0.1924509127457591</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1545779012480986</v>
+        <v>0.153718486892709</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1928149592804362</v>
+        <v>0.191728900778507</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2282491563117224</v>
+        <v>0.22961495712072</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.26092990954489</v>
+        <v>0.2608736943545716</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1999486877075719</v>
+        <v>0.2008562707075933</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.237710050008088</v>
+        <v>0.238865324630576</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1976265454514131</v>
+        <v>0.1988881852235971</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2320057498353366</v>
+        <v>0.230941461576987</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1825691246258811</v>
+        <v>0.1821182271502615</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2202879314546853</v>
+        <v>0.2212558337857704</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1837504062115604</v>
+        <v>0.1851744090263748</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2224187144832533</v>
+        <v>0.2217852855863815</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1814217473284463</v>
+        <v>0.1789280006531407</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2223571642903723</v>
+        <v>0.2222933387858264</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2581733691087022</v>
+        <v>0.2589919036990064</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2909485939726816</v>
+        <v>0.2918636050331002</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2287158568889233</v>
+        <v>0.2285652821353783</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2633919701758674</v>
+        <v>0.2646079491746523</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2177234842244514</v>
+        <v>0.2189262489467894</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2521224223730026</v>
+        <v>0.2524577271466536</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2018716299385435</v>
+        <v>0.2011998536914071</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2398296367169328</v>
+        <v>0.2398472623540909</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>81861</v>
+        <v>81215</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>92866</v>
+        <v>90728</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>77379</v>
+        <v>76425</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>51530</v>
+        <v>51742</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>93978</v>
+        <v>93950</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>110378</v>
+        <v>109631</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>79305</v>
+        <v>78086</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>74198</v>
+        <v>71956</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>185950</v>
+        <v>187815</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>212411</v>
+        <v>214036</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>163439</v>
+        <v>162272</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>135659</v>
+        <v>134703</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>118669</v>
+        <v>115790</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>127569</v>
+        <v>128021</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>112822</v>
+        <v>112129</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>101201</v>
+        <v>102455</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>130290</v>
+        <v>130556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>148394</v>
+        <v>147699</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>113682</v>
+        <v>112652</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>119745</v>
+        <v>116808</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>234600</v>
+        <v>237798</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>264168</v>
+        <v>267935</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>209518</v>
+        <v>213243</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>206705</v>
+        <v>206268</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>94001</v>
+        <v>93350</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>141955</v>
+        <v>139783</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>79676</v>
+        <v>80956</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>77384</v>
+        <v>76855</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>162342</v>
+        <v>162272</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>188404</v>
+        <v>189747</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>119602</v>
+        <v>118909</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>109892</v>
+        <v>112312</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>270643</v>
+        <v>267969</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>342029</v>
+        <v>342195</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>211860</v>
+        <v>211863</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>199463</v>
+        <v>195261</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>130449</v>
+        <v>132625</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>187151</v>
+        <v>188124</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>116230</v>
+        <v>116018</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>124664</v>
+        <v>124858</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>210251</v>
+        <v>209167</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>240307</v>
+        <v>237689</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>159712</v>
+        <v>161264</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>151833</v>
+        <v>151970</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>329514</v>
+        <v>328919</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>411445</v>
+        <v>407793</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>266189</v>
+        <v>267734</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>259484</v>
+        <v>256384</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>72757</v>
+        <v>72510</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>105572</v>
+        <v>104444</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>88051</v>
+        <v>88442</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>108112</v>
+        <v>109036</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>115490</v>
+        <v>117618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>148226</v>
+        <v>146647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>122678</v>
+        <v>121817</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>132593</v>
+        <v>132042</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>198788</v>
+        <v>200125</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>264303</v>
+        <v>266550</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>222181</v>
+        <v>221809</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>249599</v>
+        <v>249381</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>110283</v>
+        <v>110505</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>146501</v>
+        <v>148050</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>128417</v>
+        <v>130235</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>151326</v>
+        <v>150676</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>158687</v>
+        <v>160314</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>196402</v>
+        <v>193989</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>166482</v>
+        <v>164175</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>168092</v>
+        <v>168500</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>255450</v>
+        <v>254174</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>327971</v>
+        <v>330288</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>281923</v>
+        <v>278643</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>308336</v>
+        <v>306065</v>
       </c>
     </row>
     <row r="16">
@@ -2554,37 +2554,37 @@
         <v>64531</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>80715</v>
+        <v>81339</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>73356</v>
+        <v>74813</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>151436</v>
+        <v>149695</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>86513</v>
+        <v>87013</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>108952</v>
+        <v>108316</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>99678</v>
+        <v>97184</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>158579</v>
+        <v>157898</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>158408</v>
+        <v>160726</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>201675</v>
+        <v>199848</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>183833</v>
+        <v>182296</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>321129</v>
+        <v>319321</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>97950</v>
+        <v>99360</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>118051</v>
+        <v>117393</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>110074</v>
+        <v>113235</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>196650</v>
+        <v>197436</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>123935</v>
+        <v>121091</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>152064</v>
+        <v>154194</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>137790</v>
+        <v>139653</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>196218</v>
+        <v>194038</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>210454</v>
+        <v>210433</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>259623</v>
+        <v>255907</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>238654</v>
+        <v>235313</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>376968</v>
+        <v>378210</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>49217</v>
+        <v>49638</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>59602</v>
+        <v>60316</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>58770</v>
+        <v>57138</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>104274</v>
+        <v>107269</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>70992</v>
+        <v>70724</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>88752</v>
+        <v>85475</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>73986</v>
+        <v>73358</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>132076</v>
+        <v>128517</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>128718</v>
+        <v>129595</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>155956</v>
+        <v>157098</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>139817</v>
+        <v>140695</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>247940</v>
+        <v>245562</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>77896</v>
+        <v>77975</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>91446</v>
+        <v>92603</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>90756</v>
+        <v>90390</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>146022</v>
+        <v>144441</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>103676</v>
+        <v>103884</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>124606</v>
+        <v>121318</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>109972</v>
+        <v>111241</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>164394</v>
+        <v>163417</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>172214</v>
+        <v>172706</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>205916</v>
+        <v>206596</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>188806</v>
+        <v>188305</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>297147</v>
+        <v>296378</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>49467</v>
+        <v>48468</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>42189</v>
+        <v>43003</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>42476</v>
+        <v>43806</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>59793</v>
+        <v>60207</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>78999</v>
+        <v>78217</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>76467</v>
+        <v>75714</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>65024</v>
+        <v>65417</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>89527</v>
+        <v>90017</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>136274</v>
+        <v>132107</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>126149</v>
+        <v>128549</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>116998</v>
+        <v>116272</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>156541</v>
+        <v>156214</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>74220</v>
+        <v>75946</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>73941</v>
+        <v>70942</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>71346</v>
+        <v>72832</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>84142</v>
+        <v>86095</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>109979</v>
+        <v>111633</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>109726</v>
+        <v>109272</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>96194</v>
+        <v>98010</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>115135</v>
+        <v>115350</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>179860</v>
+        <v>175351</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>170104</v>
+        <v>173258</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>158953</v>
+        <v>159243</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>192664</v>
+        <v>194082</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>44483</v>
+        <v>44883</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>63108</v>
+        <v>61427</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>35083</v>
+        <v>35140</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>53046</v>
+        <v>51203</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>86866</v>
+        <v>87594</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>123092</v>
+        <v>123266</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>79999</v>
+        <v>80199</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>118595</v>
+        <v>118953</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>140657</v>
+        <v>140257</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>196502</v>
+        <v>194347</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>122366</v>
+        <v>121353</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>178488</v>
+        <v>178485</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>69526</v>
+        <v>69548</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>92654</v>
+        <v>93815</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>57321</v>
+        <v>58379</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>76043</v>
+        <v>74785</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>124335</v>
+        <v>122654</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>162122</v>
+        <v>161809</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>116449</v>
+        <v>116697</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>147334</v>
+        <v>148069</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>183148</v>
+        <v>182837</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>247069</v>
+        <v>245948</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>168205</v>
+        <v>167025</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>216432</v>
+        <v>216519</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>515800</v>
+        <v>516376</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>659024</v>
+        <v>658971</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>523043</v>
+        <v>520135</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>680790</v>
+        <v>676955</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>771084</v>
+        <v>775698</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>927659</v>
+        <v>927459</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>707435</v>
+        <v>710646</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>886223</v>
+        <v>890530</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1314990</v>
+        <v>1323385</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1619238</v>
+        <v>1611810</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1263701</v>
+        <v>1260580</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1599061</v>
+        <v>1606087</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>601904</v>
+        <v>606568</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>761583</v>
+        <v>759415</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>613874</v>
+        <v>605436</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>785097</v>
+        <v>784872</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>872176</v>
+        <v>874941</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1034381</v>
+        <v>1037634</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>809216</v>
+        <v>808683</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>981969</v>
+        <v>986502</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1448714</v>
+        <v>1456717</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1759638</v>
+        <v>1761978</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1397308</v>
+        <v>1392659</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1740913</v>
+        <v>1741041</v>
       </c>
     </row>
     <row r="36">
